--- a/beta_meta_exe/output/meta_output.xlsx
+++ b/beta_meta_exe/output/meta_output.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>endometriosis</t>
+          <t>Endometriosis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>polycystic ovary syndrome</t>
+          <t>Polycystic ovary syndrome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>polycystic ovary syndrome</t>
+          <t>Polycystic ovary syndrome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>recurrent spontaneous abortion</t>
+          <t>Recurrent spontaneous abortion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>recurrent spontaneous abortion</t>
+          <t>Recurrent spontaneous abortion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>recurrent spontaneous abortion</t>
+          <t>Recurrent spontaneous abortion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>oligoasthenoteratozoospermia</t>
+          <t>Oligoasthenoteratozoospermia</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>oligoasthenoteratozoospermia</t>
+          <t>Oligoasthenoteratozoospermia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>non-obstructive azoospermia</t>
+          <t>Non-obstructive azoospermia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
